--- a/templates/NF.xlsx
+++ b/templates/NF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB5EC85-3A2D-F64E-8689-C4D22F626D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D14A4-3395-204D-A333-D7442AF225B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1800" windowWidth="23560" windowHeight="16520" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1960" windowWidth="23560" windowHeight="16520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6185" uniqueCount="1985">
   <si>
     <t>OC(=O)C1=CC(=CN=C1)C#C</t>
   </si>
@@ -5986,6 +5986,18 @@
   </si>
   <si>
     <t>~/data/DECLT-DB/experiments</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>no_protein</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>naive</t>
   </si>
 </sst>
 </file>
@@ -7067,10 +7079,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9286309-5176-CB48-AB9B-E8EF56CF21B1}">
-  <dimension ref="A1:K613"/>
+  <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7079,14 +7091,15 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1865</v>
       </c>
@@ -7100,28 +7113,31 @@
         <v>1974</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>1975</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>1929</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>1976</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>1977</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>1978</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>1869</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>1930</v>
       </c>
@@ -7134,29 +7150,32 @@
       <c r="D2" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="J2" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>1886</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>1937</v>
       </c>
@@ -7169,29 +7188,32 @@
       <c r="D3" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="G3" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>1888</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>1938</v>
       </c>
@@ -7204,29 +7226,32 @@
       <c r="D4" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="G4" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>1889</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>1939</v>
       </c>
@@ -7239,29 +7264,32 @@
       <c r="D5" s="35" t="s">
         <v>1940</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="35" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="H5" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="K5" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="L5" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>1941</v>
       </c>
@@ -7274,29 +7302,32 @@
       <c r="D6" s="35" t="s">
         <v>1940</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="35" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="I6" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="J6" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="K6" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="L6" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>1942</v>
       </c>
@@ -7309,29 +7340,32 @@
       <c r="D7" s="35" t="s">
         <v>1940</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="35" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="H7" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="J7" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="33" t="s">
         <v>1890</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>1943</v>
       </c>
@@ -7344,29 +7378,32 @@
       <c r="D8" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="36" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="G8" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="I8" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="J8" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="K8" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="L8" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>1945</v>
       </c>
@@ -7379,29 +7416,32 @@
       <c r="D9" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="36" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="I9" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>1891</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="L9" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>1946</v>
       </c>
@@ -7414,29 +7454,32 @@
       <c r="D10" s="36" t="s">
         <v>1944</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="36" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="I10" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="J10" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>1892</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="L10" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>1947</v>
       </c>
@@ -7449,29 +7492,32 @@
       <c r="D11" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="I11" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="J11" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="K11" s="33" t="s">
         <v>1893</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="L11" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>1949</v>
       </c>
@@ -7484,29 +7530,32 @@
       <c r="D12" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="I12" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="J12" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="K12" s="33" t="s">
         <v>1894</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="L12" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>1950</v>
       </c>
@@ -7519,29 +7568,32 @@
       <c r="D13" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="G13" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="H13" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="I13" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="J13" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="K13" s="33" t="s">
         <v>1895</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="L13" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>1951</v>
       </c>
@@ -7554,29 +7606,32 @@
       <c r="D14" s="38" t="s">
         <v>1952</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="38" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="G14" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="I14" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="J14" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="K14" s="33" t="s">
         <v>1896</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="L14" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>1953</v>
       </c>
@@ -7589,29 +7644,32 @@
       <c r="D15" s="38" t="s">
         <v>1952</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="38" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="G15" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="I15" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="J15" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="K15" s="33" t="s">
         <v>1897</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="L15" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>1954</v>
       </c>
@@ -7624,29 +7682,32 @@
       <c r="D16" s="38" t="s">
         <v>1952</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="38" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="G16" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="H16" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="I16" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="J16" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="K16" s="33" t="s">
         <v>1898</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="L16" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>1955</v>
       </c>
@@ -7659,29 +7720,32 @@
       <c r="D17" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="39" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="G17" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="H17" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="I17" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="J17" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>1899</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="L17" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>1957</v>
       </c>
@@ -7694,29 +7758,32 @@
       <c r="D18" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="39" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="G18" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="I18" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="J18" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="K18" s="33" t="s">
         <v>1900</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="L18" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>1958</v>
       </c>
@@ -7729,29 +7796,32 @@
       <c r="D19" s="39" t="s">
         <v>1956</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="39" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>1932</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="G19" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>1934</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="I19" s="37" t="s">
         <v>1948</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="J19" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="K19" s="33" t="s">
         <v>1901</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="L19" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>1959</v>
       </c>
@@ -7764,29 +7834,32 @@
       <c r="D20" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F20" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="G20" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="H20" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="I20" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="J20" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>1902</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="L20" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>1963</v>
       </c>
@@ -7799,29 +7872,32 @@
       <c r="D21" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="G21" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H21" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="I21" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="J21" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="K21" s="33" t="s">
         <v>1903</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="L21" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>1964</v>
       </c>
@@ -7834,29 +7910,32 @@
       <c r="D22" s="28" t="s">
         <v>1931</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="G22" s="30" t="s">
         <v>1933</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="I22" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="J22" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="33" t="s">
         <v>1904</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="L22" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>1965</v>
       </c>
@@ -7869,29 +7948,32 @@
       <c r="D23" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="G23" s="31" t="s">
         <v>1967</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="H23" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="I23" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="J23" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>1905</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="L23" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>1968</v>
       </c>
@@ -7904,29 +7986,32 @@
       <c r="D24" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="G24" s="31" t="s">
         <v>1967</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="I24" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="J24" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="K24" s="33" t="s">
         <v>808</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="L24" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>1969</v>
       </c>
@@ -7939,29 +8024,32 @@
       <c r="D25" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>1967</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="I25" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="J25" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="K25" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="L25" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>1970</v>
       </c>
@@ -7974,29 +8062,32 @@
       <c r="D26" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="G26" s="42" t="s">
         <v>1971</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="I26" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="J26" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="K26" s="33" t="s">
         <v>1906</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="L26" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>1972</v>
       </c>
@@ -8009,29 +8100,32 @@
       <c r="D27" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="41" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>1960</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="G27" s="42" t="s">
         <v>1971</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>1961</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="I27" s="38" t="s">
         <v>1962</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="J27" s="32" t="s">
         <v>1936</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="K27" s="33" t="s">
         <v>1907</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="L27" s="34" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>1973</v>
       </c>
@@ -8044,38 +8138,41 @@
       <c r="D28" s="46" t="s">
         <v>1966</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>1960</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="G28" s="48" t="s">
         <v>1971</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="H28" s="44" t="s">
         <v>1961</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="I28" s="49" t="s">
         <v>1962</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="J28" s="50" t="s">
         <v>1936</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="K28" s="51" t="s">
         <v>1908</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="L28" s="52" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -30087,7 +30184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/templates/NF.xlsx
+++ b/templates/NF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianomartinelli/projects/delt/delt-core/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152D14A4-3395-204D-A333-D7442AF225B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AF6C36-9E20-0A40-B4AF-F0E157D80C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="1960" windowWidth="23560" windowHeight="16520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7082,7 +7082,7 @@
   <dimension ref="A1:L613"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
